--- a/Folding_Zero/Results.xlsx
+++ b/Folding_Zero/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA6562-C361-48EC-B18A-F7FDB812C144}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAEC795-ECF5-4E4A-BFA5-69103D645AD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sequence No.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>CB - Past</t>
+  </si>
+  <si>
+    <t>Newest- finished 11/17</t>
   </si>
 </sst>
 </file>
@@ -1124,6 +1127,649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C378-49B7-8A37-8B4DE62AC032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Folding_Zero, Nov 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C378-49B7-8A37-8B4DE62AC032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1722347056"/>
+        <c:axId val="1894419984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1722347056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequence Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894419984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1894419984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Final</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722347056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1244,6 +1890,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2277,6 +2963,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2924,6 +4126,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBB7AC7-BB81-4D66-96F0-2BF6ED0C22C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3187,18 +4430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3214,8 +4458,11 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -3231,8 +4478,11 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -3248,8 +4498,11 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -3265,8 +4518,11 @@
       <c r="G5">
         <v>5</v>
       </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -3282,8 +4538,11 @@
       <c r="G6">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -3299,8 +4558,11 @@
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -3316,8 +4578,11 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -3333,8 +4598,11 @@
       <c r="G9">
         <v>2</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -3350,8 +4618,11 @@
       <c r="G10">
         <v>2</v>
       </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -3367,8 +4638,11 @@
       <c r="G11">
         <v>7</v>
       </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -3384,8 +4658,11 @@
       <c r="G12">
         <v>4</v>
       </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -3401,8 +4678,11 @@
       <c r="G13">
         <v>11</v>
       </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -3418,8 +4698,11 @@
       <c r="G14">
         <v>19</v>
       </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -3435,8 +4718,11 @@
       <c r="G15">
         <v>10</v>
       </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -3452,8 +4738,11 @@
       <c r="G16">
         <v>8</v>
       </c>
+      <c r="I16">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -3468,9 +4757,13 @@
       </c>
       <c r="G17">
         <v>5</v>
+      </c>
+      <c r="I17">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>